--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D410A3D-D444-4B2E-9202-5537A98044C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381FDEAB-15DE-47DC-AFA5-E8F5270CE770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,10 +659,10 @@
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D53"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,7 +681,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>50</v>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381FDEAB-15DE-47DC-AFA5-E8F5270CE770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC63302-E1C2-476F-BA35-8B125A993586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,203 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
-  <si>
-    <t>白色奶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诶某某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光头强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔道师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸽哨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼时年少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃尔史密斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雨者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛夫人如花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄小喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酥心果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡富贵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施主来个馒头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找杰克船长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰山排骨男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑矮星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三季稻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溺水的鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗小猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁小沫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好迟的糯米饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索道第一奶妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叨逼叨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琺瑟厄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁月无恙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那夜你好坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Richard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闻人微笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我有虎牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欺夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗小猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传奇害一生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡德财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天黑动手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边个系一碌蔗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁小牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马果果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级牛肉饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>MC分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>烟灰圈圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计总分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血战半边天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上次队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +71,168 @@
   <si>
     <t>累积分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>白色奶牛</t>
+  </si>
+  <si>
+    <t>烟灰圈圈</t>
+  </si>
+  <si>
+    <t>诶某某</t>
+  </si>
+  <si>
+    <t>哥顿</t>
+  </si>
+  <si>
+    <t>Moy</t>
+  </si>
+  <si>
+    <t>光头强</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>魔道师傅</t>
+  </si>
+  <si>
+    <t>鸽哨</t>
+  </si>
+  <si>
+    <t>彼时年少</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>埃尔史密斯</t>
+  </si>
+  <si>
+    <t>风雨者</t>
+  </si>
+  <si>
+    <t>牛夫人如花</t>
+  </si>
+  <si>
+    <t>黄小喵</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>酥心果</t>
+  </si>
+  <si>
+    <t>亡富贵</t>
+  </si>
+  <si>
+    <t>施主来个馒头</t>
+  </si>
+  <si>
+    <t>寻找杰克船长</t>
+  </si>
+  <si>
+    <t>凤凰山排骨男</t>
+  </si>
+  <si>
+    <t>黑矮星</t>
+  </si>
+  <si>
+    <t>三季稻</t>
+  </si>
+  <si>
+    <t>溺水的鱼</t>
+  </si>
+  <si>
+    <t>黑暗小猫</t>
+  </si>
+  <si>
+    <t>血战半边天</t>
+  </si>
+  <si>
+    <t>丁沫沫</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>丁小沫</t>
+  </si>
+  <si>
+    <t>好迟的糯米饭</t>
+  </si>
+  <si>
+    <t>索道第一奶妈</t>
+  </si>
+  <si>
+    <t>叨逼叨</t>
+  </si>
+  <si>
+    <t>琺瑟厄</t>
+  </si>
+  <si>
+    <t>岁月无恙</t>
+  </si>
+  <si>
+    <t>那夜你好坏</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>闻人微笑</t>
+  </si>
+  <si>
+    <t>我有虎牙</t>
+  </si>
+  <si>
+    <t>欺夜</t>
+  </si>
+  <si>
+    <t>黑暗小猪</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>传奇害一生</t>
+  </si>
+  <si>
+    <t>亡德财</t>
+  </si>
+  <si>
+    <t>天黑动手</t>
+  </si>
+  <si>
+    <t>阿里之拳</t>
+  </si>
+  <si>
+    <t>边个系一碌蔗</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>丁小牛</t>
+  </si>
+  <si>
+    <t>马果果</t>
+  </si>
+  <si>
+    <t>超级牛肉饭</t>
+  </si>
+  <si>
+    <t>老牛太妖</t>
+  </si>
+  <si>
+    <t>jin</t>
   </si>
 </sst>
 </file>
@@ -656,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P53"/>
+  <dimension ref="B2:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,13 +632,13 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
@@ -692,42 +646,42 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -747,18 +701,18 @@
       <c r="N4" s="8"/>
       <c r="O4" s="5"/>
       <c r="P4" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -778,18 +732,18 @@
       <c r="N5" s="8"/>
       <c r="O5" s="5"/>
       <c r="P5" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -809,18 +763,18 @@
       <c r="N6" s="8"/>
       <c r="O6" s="5"/>
       <c r="P6" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -840,18 +794,18 @@
       <c r="N7" s="8"/>
       <c r="O7" s="5"/>
       <c r="P7" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -871,15 +825,15 @@
       <c r="N8" s="8"/>
       <c r="O8" s="5"/>
       <c r="P8" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -930,13 +884,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -956,15 +910,15 @@
       <c r="N11" s="8"/>
       <c r="O11" s="5"/>
       <c r="P11" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -992,13 +946,13 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1018,7 +972,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="5"/>
       <c r="P13" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -1046,13 +1000,13 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -1072,18 +1026,18 @@
       <c r="N15" s="8"/>
       <c r="O15" s="5"/>
       <c r="P15" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1103,18 +1057,18 @@
       <c r="N16" s="8"/>
       <c r="O16" s="5"/>
       <c r="P16" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -1134,18 +1088,18 @@
       <c r="N17" s="8"/>
       <c r="O17" s="5"/>
       <c r="P17" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -1165,7 +1119,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="5"/>
       <c r="P18" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
@@ -1193,13 +1147,13 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
@@ -1219,15 +1173,15 @@
       <c r="N20" s="8"/>
       <c r="O20" s="5"/>
       <c r="P20" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5">
         <v>52</v>
@@ -1255,13 +1209,13 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
@@ -1281,15 +1235,15 @@
       <c r="N22" s="8"/>
       <c r="O22" s="5"/>
       <c r="P22" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
@@ -1317,13 +1271,13 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
@@ -1343,18 +1297,18 @@
       <c r="N24" s="8"/>
       <c r="O24" s="5"/>
       <c r="P24" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
@@ -1374,15 +1328,15 @@
       <c r="N25" s="8"/>
       <c r="O25" s="5"/>
       <c r="P25" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5">
         <v>42</v>
@@ -1410,13 +1364,13 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D27" s="5">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -1436,18 +1390,18 @@
       <c r="N27" s="8"/>
       <c r="O27" s="5"/>
       <c r="P27" s="9">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
@@ -1467,18 +1421,18 @@
       <c r="N28" s="8"/>
       <c r="O28" s="5"/>
       <c r="P28" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -1498,13 +1452,19 @@
       <c r="N29" s="8"/>
       <c r="O29" s="5"/>
       <c r="P29" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
@@ -1522,18 +1482,14 @@
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="9"/>
+      <c r="P30" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5">
-        <v>47</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
@@ -1551,19 +1507,17 @@
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="9">
-        <v>47</v>
-      </c>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
@@ -1583,18 +1537,18 @@
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
       <c r="P32" s="9">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D33" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
@@ -1614,18 +1568,18 @@
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
       <c r="P33" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D34" s="5">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
@@ -1645,18 +1599,18 @@
       <c r="N34" s="8"/>
       <c r="O34" s="5"/>
       <c r="P34" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
@@ -1676,18 +1630,18 @@
       <c r="N35" s="8"/>
       <c r="O35" s="5"/>
       <c r="P35" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D36" s="5">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
@@ -1707,18 +1661,18 @@
       <c r="N36" s="8"/>
       <c r="O36" s="5"/>
       <c r="P36" s="9">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D37" s="5">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
@@ -1738,18 +1692,18 @@
       <c r="N37" s="8"/>
       <c r="O37" s="5"/>
       <c r="P37" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D38" s="5">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
@@ -1769,13 +1723,19 @@
       <c r="N38" s="8"/>
       <c r="O38" s="5"/>
       <c r="P38" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="5">
+        <v>18</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
@@ -1793,18 +1753,14 @@
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="9"/>
+      <c r="P39" s="9">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="5">
-        <v>43</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
@@ -1822,19 +1778,17 @@
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="9">
-        <v>43</v>
-      </c>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D41" s="5">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
@@ -1854,18 +1808,18 @@
       <c r="N41" s="8"/>
       <c r="O41" s="5"/>
       <c r="P41" s="9">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D42" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
@@ -1885,18 +1839,18 @@
       <c r="N42" s="8"/>
       <c r="O42" s="5"/>
       <c r="P42" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
@@ -1916,13 +1870,19 @@
       <c r="N43" s="8"/>
       <c r="O43" s="5"/>
       <c r="P43" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="5">
+        <v>30</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
@@ -1940,18 +1900,14 @@
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="9"/>
+      <c r="P44" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="5">
-        <v>14</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
@@ -1969,19 +1925,17 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="9">
-        <v>14</v>
-      </c>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D46" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -2001,18 +1955,18 @@
       <c r="N46" s="8"/>
       <c r="O46" s="5"/>
       <c r="P46" s="9">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D47" s="5">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
@@ -2032,18 +1986,18 @@
       <c r="N47" s="8"/>
       <c r="O47" s="5"/>
       <c r="P47" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D48" s="5">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
@@ -2063,18 +2017,18 @@
       <c r="N48" s="8"/>
       <c r="O48" s="5"/>
       <c r="P48" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D49" s="5">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
@@ -2094,13 +2048,19 @@
       <c r="N49" s="8"/>
       <c r="O49" s="5"/>
       <c r="P49" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="5">
+        <v>58</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
@@ -2118,14 +2078,16 @@
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="9"/>
+      <c r="P50" s="9">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D51" s="5">
         <v>6</v>
@@ -2152,15 +2114,9 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="5">
-        <v>58</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
@@ -2178,19 +2134,17 @@
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="9">
-        <v>58</v>
-      </c>
+      <c r="P52" s="9"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D53" s="5">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
@@ -2210,7 +2164,107 @@
       <c r="N53" s="8"/>
       <c r="O53" s="5"/>
       <c r="P53" s="9">
-        <v>26</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="5">
+        <v>60</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="5">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="5">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E24CBD-7F98-448B-8368-39B6B72CB620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9050C71-37F0-4AD9-9EF1-0E4BC17696D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B4:D60"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9050C71-37F0-4AD9-9EF1-0E4BC17696D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70B7EE-76AF-40E9-ABDF-D86F3C054C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>累积分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>jin</t>
+  </si>
+  <si>
+    <t>晓无双</t>
+  </si>
+  <si>
+    <t>通灵大叔</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,13 +265,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -551,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D60"/>
+  <dimension ref="B3:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,8 +594,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>72</v>
+      <c r="D4" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -585,8 +605,8 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>68</v>
+      <c r="D5" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -596,8 +616,8 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>12</v>
+      <c r="D6" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -607,8 +627,8 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>72</v>
+      <c r="D7" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -618,8 +638,8 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
-        <v>22</v>
+      <c r="D8" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -629,7 +649,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
     </row>
@@ -640,35 +660,35 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -676,48 +696,48 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1">
-        <v>72</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -725,48 +745,48 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <v>52</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -774,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -785,10 +805,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1">
-        <v>68</v>
+        <v>21</v>
+      </c>
+      <c r="D25" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -796,10 +816,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -807,10 +827,10 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -818,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -829,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -840,10 +860,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -851,10 +871,10 @@
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -862,10 +882,10 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -873,48 +893,48 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <v>67</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="1">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="D37" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -922,10 +942,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D38" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -933,10 +953,10 @@
         <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="D39" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -944,10 +964,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="1">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="D40" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -955,10 +975,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="D41" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -966,48 +986,48 @@
         <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="1">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="D42" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="1">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1">
-        <v>72</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="1">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="D46" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -1015,48 +1035,48 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="1">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="D47" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="1">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="1">
-        <v>20</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="1">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D51" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -1064,10 +1084,10 @@
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="1">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1095,10 @@
         <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="1">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="D53" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1086,48 +1106,48 @@
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="1">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="1">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D56" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1">
-        <v>70</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="1">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1135,10 +1155,10 @@
         <v>52</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="1">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="D59" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
@@ -1146,9 +1166,31 @@
         <v>52</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D62">
         <v>6</v>
       </c>
     </row>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70B7EE-76AF-40E9-ABDF-D86F3C054C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7AEAF-96C0-4065-8D39-3F88E1C8A86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>累积分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>通灵大叔</t>
+  </si>
+  <si>
+    <t>伊兰妮</t>
+  </si>
+  <si>
+    <t>Cocalala</t>
+  </si>
+  <si>
+    <t>糯米饭</t>
   </si>
 </sst>
 </file>
@@ -242,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,27 +274,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D62"/>
+  <dimension ref="B3:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D62"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,8 +589,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>76</v>
+      <c r="D4" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -605,8 +600,8 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>72</v>
+      <c r="D5" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -616,8 +611,8 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>16</v>
+      <c r="D6" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -627,8 +622,8 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>76</v>
+      <c r="D7" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -638,8 +633,8 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
-        <v>26</v>
+      <c r="D8" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -649,7 +644,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
     </row>
@@ -660,8 +655,8 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
-        <v>12</v>
+      <c r="D10" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -671,14 +666,14 @@
       <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="2">
-        <v>4</v>
+      <c r="D11" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -687,8 +682,8 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>20</v>
+      <c r="D13" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -698,7 +693,7 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>10</v>
       </c>
     </row>
@@ -709,8 +704,8 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
-        <v>75</v>
+      <c r="D15" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -720,14 +715,14 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2">
-        <v>4</v>
+      <c r="D16" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -736,8 +731,8 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
-        <v>74</v>
+      <c r="D18" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -747,8 +742,8 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
-        <v>76</v>
+      <c r="D19" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -758,8 +753,8 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2">
-        <v>30</v>
+      <c r="D20" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -769,14 +764,14 @@
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2">
-        <v>42</v>
+      <c r="D21" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -785,8 +780,8 @@
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
-        <v>64</v>
+      <c r="D23" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -796,7 +791,7 @@
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>52</v>
       </c>
     </row>
@@ -807,8 +802,8 @@
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2">
-        <v>71</v>
+      <c r="D25" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -818,7 +813,7 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>5</v>
       </c>
     </row>
@@ -829,8 +824,8 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="2">
-        <v>72</v>
+      <c r="D27" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -840,8 +835,8 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="2">
-        <v>72</v>
+      <c r="D28" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -851,7 +846,7 @@
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>42</v>
       </c>
     </row>
@@ -862,8 +857,8 @@
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2">
-        <v>18</v>
+      <c r="D30" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -873,7 +868,7 @@
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>22</v>
       </c>
     </row>
@@ -884,8 +879,8 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="2">
-        <v>18</v>
+      <c r="D32" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -895,7 +890,7 @@
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>14</v>
       </c>
     </row>
@@ -906,8 +901,8 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="2">
-        <v>12</v>
+      <c r="D34" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -917,35 +912,35 @@
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2">
-        <v>47</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -953,10 +948,10 @@
         <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="2">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="D39" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -964,10 +959,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="D40" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -975,10 +970,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="D41" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -986,10 +981,10 @@
         <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="2">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="D42" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -997,10 +992,10 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1008,37 +1003,37 @@
         <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2">
-        <v>49</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="2">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -1046,10 +1041,10 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="2">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="D48" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1057,37 +1052,37 @@
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-    </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="2">
-        <v>32</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="2">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="D52" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1095,10 +1090,10 @@
         <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="2">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="D53" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1106,10 +1101,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="2">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D54" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1117,10 +1112,10 @@
         <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="2">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D55" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1128,59 +1123,59 @@
         <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="2">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="2">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
@@ -1188,10 +1183,43 @@
         <v>52</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D62">
-        <v>6</v>
+      <c r="D65" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7AEAF-96C0-4065-8D39-3F88E1C8A86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1B5CD-ABDE-4011-BE1E-AE7747BF489F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="B3:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D4" sqref="D4:D65"/>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -1066,7 +1066,7 @@
         <v>45</v>
       </c>
       <c r="D50" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>47</v>
       </c>
       <c r="D52" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="D54" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>51</v>
       </c>
       <c r="D56" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1B5CD-ABDE-4011-BE1E-AE7747BF489F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18019A58-B1C0-410E-9E19-9749A39444E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="20865" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -243,12 +243,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -278,9 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,10 +576,10 @@
   <dimension ref="B3:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D65"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,8 +596,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>84</v>
+      <c r="D4" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -600,8 +607,8 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>80</v>
+      <c r="D5" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -611,8 +618,8 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>24</v>
+      <c r="D6" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -622,8 +629,8 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>84</v>
+      <c r="D7" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -633,8 +640,8 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
-        <v>34</v>
+      <c r="D8" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -644,7 +651,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
     </row>
@@ -655,8 +662,8 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>20</v>
+      <c r="D10" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -666,14 +673,14 @@
       <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1">
-        <v>12</v>
+      <c r="D11" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -682,7 +689,7 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>28</v>
       </c>
     </row>
@@ -693,8 +700,8 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
-        <v>16</v>
+      <c r="D14" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -704,8 +711,8 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
-        <v>83</v>
+      <c r="D15" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -715,14 +722,14 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -731,7 +738,7 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>82</v>
       </c>
     </row>
@@ -742,7 +749,7 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>84</v>
       </c>
     </row>
@@ -753,8 +760,8 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
-        <v>38</v>
+      <c r="D20" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -764,14 +771,14 @@
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1">
-        <v>50</v>
+      <c r="D21" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -780,8 +787,8 @@
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1">
-        <v>72</v>
+      <c r="D23" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -791,8 +798,8 @@
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1">
-        <v>52</v>
+      <c r="D24" s="2">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -802,8 +809,8 @@
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1">
-        <v>69</v>
+      <c r="D25" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -813,7 +820,7 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>5</v>
       </c>
     </row>
@@ -824,8 +831,8 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1">
-        <v>80</v>
+      <c r="D27" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -835,8 +842,8 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1">
-        <v>80</v>
+      <c r="D28" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -846,7 +853,7 @@
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>42</v>
       </c>
     </row>
@@ -857,8 +864,8 @@
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="1">
-        <v>26</v>
+      <c r="D30" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -868,7 +875,7 @@
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>28</v>
       </c>
     </row>
@@ -879,7 +886,7 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>26</v>
       </c>
     </row>
@@ -890,7 +897,7 @@
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>14</v>
       </c>
     </row>
@@ -901,8 +908,8 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="1">
-        <v>20</v>
+      <c r="D34" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -912,7 +919,7 @@
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>6</v>
       </c>
     </row>
@@ -923,14 +930,14 @@
       <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="1">
-        <v>2</v>
+      <c r="D36" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
@@ -939,8 +946,8 @@
       <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1">
-        <v>49</v>
+      <c r="D38" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -950,7 +957,7 @@
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>79</v>
       </c>
     </row>
@@ -961,8 +968,8 @@
       <c r="C40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="1">
-        <v>83</v>
+      <c r="D40" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -972,7 +979,7 @@
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>52</v>
       </c>
     </row>
@@ -983,8 +990,8 @@
       <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="1">
-        <v>84</v>
+      <c r="D42" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -994,7 +1001,7 @@
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1005,7 +1012,7 @@
       <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>66</v>
       </c>
     </row>
@@ -1016,14 +1023,14 @@
       <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="1">
-        <v>38</v>
+      <c r="D45" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
@@ -1032,7 +1039,7 @@
       <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1043,8 +1050,8 @@
       <c r="C48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="1">
-        <v>84</v>
+      <c r="D48" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1054,7 +1061,7 @@
       <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>84</v>
       </c>
     </row>
@@ -1065,14 +1072,14 @@
       <c r="C50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
@@ -1081,8 +1088,8 @@
       <c r="C52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="1">
-        <v>40</v>
+      <c r="D52" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1092,7 +1099,7 @@
       <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>32</v>
       </c>
     </row>
@@ -1103,8 +1110,8 @@
       <c r="C54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="1">
-        <v>27</v>
+      <c r="D54" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1114,8 +1121,8 @@
       <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="1">
-        <v>60</v>
+      <c r="D55" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1125,8 +1132,8 @@
       <c r="C56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="1">
-        <v>57</v>
+      <c r="D56" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1136,8 +1143,8 @@
       <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="1">
-        <v>23</v>
+      <c r="D57" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1147,7 +1154,7 @@
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1158,14 +1165,14 @@
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="1">
-        <v>2</v>
+      <c r="D59" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
@@ -1174,7 +1181,7 @@
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1185,8 +1192,8 @@
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="1">
-        <v>74</v>
+      <c r="D62" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
@@ -1196,8 +1203,8 @@
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="1">
-        <v>46</v>
+      <c r="D63" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1207,8 +1214,8 @@
       <c r="C64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="1">
-        <v>26</v>
+      <c r="D64" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
@@ -1218,7 +1225,7 @@
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>8</v>
       </c>
     </row>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18019A58-B1C0-410E-9E19-9749A39444E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D46885-95FE-406B-B41D-7A8392635C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="20865" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -576,10 +576,10 @@
   <dimension ref="B3:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D46885-95FE-406B-B41D-7A8392635C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35A6D4-005D-4E1F-AFBD-351FDE7AB0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1650" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>累积分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>糯米饭</t>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D65"/>
+  <dimension ref="B3:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -608,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -619,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -630,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -641,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -674,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -690,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -701,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -712,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -723,7 +731,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -739,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -750,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -761,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -772,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -788,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -810,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -832,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -843,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -876,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -887,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -909,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -958,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -969,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -991,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -1002,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1013,7 +1021,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1024,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -1051,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1073,34 +1081,34 @@
         <v>45</v>
       </c>
       <c r="D50" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="2">
-        <v>42</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1108,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1119,10 +1127,10 @@
         <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1130,10 +1138,10 @@
         <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="2">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1141,10 +1149,10 @@
         <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D57" s="2">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1152,10 +1160,10 @@
         <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1163,37 +1171,37 @@
         <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="2">
-        <v>6</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
@@ -1201,10 +1209,10 @@
         <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1212,10 +1220,10 @@
         <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
@@ -1223,10 +1231,21 @@
         <v>52</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="2">
-        <v>8</v>
+      <c r="D66" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35A6D4-005D-4E1F-AFBD-351FDE7AB0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189241F-4537-4B7D-B845-2B376966885B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1650" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
   <dimension ref="B3:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>36</v>
       </c>
       <c r="D41" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="D63" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>56</v>
       </c>
       <c r="D65" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189241F-4537-4B7D-B845-2B376966885B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C5547D-9341-415E-979E-5C3B7EEFA5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,10 @@
   <dimension ref="B3:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D66"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C5547D-9341-415E-979E-5C3B7EEFA5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A87C1C-9F1E-4305-84BB-725026FB32A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="2640" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
   <dimension ref="B3:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>45</v>
       </c>
       <c r="D50" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>36</v>
       </c>
       <c r="D58" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="D63" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>56</v>
       </c>
       <c r="D65" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A87C1C-9F1E-4305-84BB-725026FB32A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757D92F-EADE-4866-9A52-C46BBBA5AB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="2640" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="2">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757D92F-EADE-4866-9A52-C46BBBA5AB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB9CBF9-9378-4E89-9093-B5C47625708C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="1320" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>累积分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,12 +223,13 @@
     <t>糯米饭</t>
   </si>
   <si>
-    <t>LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>晓美丽</t>
   </si>
   <si>
     <t>超级牛肉面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -581,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D66"/>
+  <dimension ref="B3:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D66"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -616,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -627,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -638,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -649,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -686,30 +687,28 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>36</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -717,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -728,37 +727,37 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>92</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -766,10 +765,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -777,37 +776,37 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2">
-        <v>84</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -815,10 +814,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -826,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -837,10 +836,10 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -848,10 +847,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -859,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -870,10 +869,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -881,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2">
         <v>36</v>
@@ -892,10 +891,10 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -903,10 +902,10 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -914,10 +913,10 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -925,10 +924,10 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
@@ -936,48 +935,46 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2">
-        <v>57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="2">
-        <v>95</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -985,10 +982,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -996,10 +993,10 @@
         <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -1007,10 +1004,10 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1018,10 +1015,10 @@
         <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -1029,48 +1026,48 @@
         <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="2">
-        <v>98</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -1078,59 +1075,59 @@
         <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="2">
-        <v>42</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1138,10 +1135,10 @@
         <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1149,10 +1146,10 @@
         <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1160,10 +1157,10 @@
         <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1171,10 +1168,10 @@
         <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D59" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
@@ -1182,48 +1179,48 @@
         <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="2">
-        <v>86</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64" s="2">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
@@ -1231,10 +1228,10 @@
         <v>52</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
@@ -1242,9 +1239,31 @@
         <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D68" s="1">
         <v>12</v>
       </c>
     </row>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB9CBF9-9378-4E89-9093-B5C47625708C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0239FFA0-5F14-4569-8113-0DD530300DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="1320" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="1755" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -145,91 +145,92 @@
     <t>叨逼叨</t>
   </si>
   <si>
+    <t>岁月无恙</t>
+  </si>
+  <si>
+    <t>那夜你好坏</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>闻人微笑</t>
+  </si>
+  <si>
+    <t>我有虎牙</t>
+  </si>
+  <si>
+    <t>欺夜</t>
+  </si>
+  <si>
+    <t>黑暗小猪</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>传奇害一生</t>
+  </si>
+  <si>
+    <t>亡德财</t>
+  </si>
+  <si>
+    <t>天黑动手</t>
+  </si>
+  <si>
+    <t>阿里之拳</t>
+  </si>
+  <si>
+    <t>边个系一碌蔗</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>丁小牛</t>
+  </si>
+  <si>
+    <t>马果果</t>
+  </si>
+  <si>
+    <t>超级牛肉饭</t>
+  </si>
+  <si>
+    <t>老牛太妖</t>
+  </si>
+  <si>
+    <t>jin</t>
+  </si>
+  <si>
+    <t>晓无双</t>
+  </si>
+  <si>
+    <t>通灵大叔</t>
+  </si>
+  <si>
+    <t>伊兰妮</t>
+  </si>
+  <si>
+    <t>Cocalala</t>
+  </si>
+  <si>
+    <t>糯米饭</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>晓美丽</t>
+  </si>
+  <si>
+    <t>超级牛肉面</t>
+  </si>
+  <si>
     <t>琺瑟厄</t>
-  </si>
-  <si>
-    <t>岁月无恙</t>
-  </si>
-  <si>
-    <t>那夜你好坏</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>闻人微笑</t>
-  </si>
-  <si>
-    <t>我有虎牙</t>
-  </si>
-  <si>
-    <t>欺夜</t>
-  </si>
-  <si>
-    <t>黑暗小猪</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>传奇害一生</t>
-  </si>
-  <si>
-    <t>亡德财</t>
-  </si>
-  <si>
-    <t>天黑动手</t>
-  </si>
-  <si>
-    <t>阿里之拳</t>
-  </si>
-  <si>
-    <t>边个系一碌蔗</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>丁小牛</t>
-  </si>
-  <si>
-    <t>马果果</t>
-  </si>
-  <si>
-    <t>超级牛肉饭</t>
-  </si>
-  <si>
-    <t>老牛太妖</t>
-  </si>
-  <si>
-    <t>jin</t>
-  </si>
-  <si>
-    <t>晓无双</t>
-  </si>
-  <si>
-    <t>通灵大叔</t>
-  </si>
-  <si>
-    <t>伊兰妮</t>
-  </si>
-  <si>
-    <t>Cocalala</t>
-  </si>
-  <si>
-    <t>糯米饭</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>晓美丽</t>
-  </si>
-  <si>
-    <t>超级牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,10 +586,10 @@
   <dimension ref="B3:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D68"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>26</v>
@@ -691,9 +692,11 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -738,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
@@ -946,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -957,9 +960,11 @@
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -1015,7 +1020,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2">
         <v>104</v>
@@ -1026,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2">
         <v>42</v>
@@ -1037,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2">
         <v>82</v>
@@ -1048,10 +1053,10 @@
         <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -1061,10 +1066,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D49" s="2">
         <v>53</v>
@@ -1072,10 +1077,10 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2">
         <v>104</v>
@@ -1083,10 +1088,10 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2">
         <v>88</v>
@@ -1094,10 +1099,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2">
         <v>60</v>
@@ -1105,10 +1110,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
@@ -1121,10 +1126,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D55" s="2">
         <v>52</v>
@@ -1132,10 +1137,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="2">
         <v>46</v>
@@ -1143,10 +1148,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="2">
         <v>41</v>
@@ -1154,10 +1159,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="2">
         <v>80</v>
@@ -1165,10 +1170,10 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="2">
         <v>14</v>
@@ -1176,7 +1181,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>36</v>
@@ -1187,10 +1192,10 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -1198,10 +1203,10 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -1214,10 +1219,10 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D64" s="2">
         <v>6</v>
@@ -1225,10 +1230,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2">
         <v>90</v>
@@ -1236,10 +1241,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2">
         <v>58</v>
@@ -1247,10 +1252,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1">
         <v>44</v>
@@ -1258,10 +1263,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0239FFA0-5F14-4569-8113-0DD530300DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE229D49-1C77-4F10-AAF0-EAC5B3458CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1755" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -586,10 +586,10 @@
   <dimension ref="B3:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">

--- a/2019_dkp/current_dkp.xlsx
+++ b/2019_dkp/current_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE229D49-1C77-4F10-AAF0-EAC5B3458CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB87BB-E1BD-4C89-98EC-3D98F446EACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -586,10 +586,10 @@
   <dimension ref="B3:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="2">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
